--- a/Luban/Configs/Datas/CardDatas/UnitCards.xlsx
+++ b/Luban/Configs/Datas/CardDatas/UnitCards.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Game Projects\Unity Projects\Genpai\Luban\Configs\Datas\CardDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CD36D6-D247-46CF-9D25-638D82711930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB4AF73A-3C46-4060-AE31-B8B069E82EAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="角色卡" sheetId="1" r:id="rId1"/>
+    <sheet name="怪物卡" sheetId="2" r:id="rId2"/>
+    <sheet name="Boss卡" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="65">
   <si>
     <t>##var</t>
   </si>
@@ -91,27 +93,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>刻晴 A</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Keqing_A</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>My Waifu</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>None</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>胡桃 A</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hutao_A</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -294,6 +280,22 @@
       <t>id</t>
     </r>
   </si>
+  <si>
+    <t>胡桃</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>刻晴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Keqing</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hutao</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -302,7 +304,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -354,6 +356,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -393,7 +401,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
@@ -411,6 +419,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -688,19 +697,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="9.625" customWidth="1"/>
-    <col min="3" max="3" width="17.875" customWidth="1"/>
+    <col min="3" max="3" width="15.25" customWidth="1"/>
     <col min="4" max="4" width="14.25" customWidth="1"/>
-    <col min="5" max="5" width="14.375" customWidth="1"/>
+    <col min="5" max="5" width="17.625" customWidth="1"/>
     <col min="6" max="6" width="14.125" customWidth="1"/>
     <col min="7" max="7" width="12.375" customWidth="1"/>
     <col min="8" max="8" width="12.875" customWidth="1"/>
@@ -715,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
@@ -742,7 +751,7 @@
         <v>13</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -753,31 +762,31 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -788,31 +797,31 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -820,16 +829,16 @@
         <v>100</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="G4">
         <v>12</v>
@@ -838,10 +847,10 @@
         <v>5</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K4" s="3">
         <v>3</v>
@@ -852,16 +861,16 @@
         <v>101</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
+        <v>56</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G5">
         <v>10</v>
@@ -870,300 +879,12 @@
         <v>6</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K5" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B6">
-        <v>200</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6">
-        <v>11</v>
-      </c>
-      <c r="H6">
-        <v>3</v>
-      </c>
-      <c r="I6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B7">
-        <v>201</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7">
-        <v>7</v>
-      </c>
-      <c r="H7">
-        <v>5</v>
-      </c>
-      <c r="I7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B8">
-        <v>202</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="5">
-        <v>11</v>
-      </c>
-      <c r="H8" s="5">
-        <v>2</v>
-      </c>
-      <c r="I8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" t="s">
-        <v>27</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B9">
-        <v>203</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="5">
-        <v>7</v>
-      </c>
-      <c r="H9" s="5">
-        <v>5</v>
-      </c>
-      <c r="I9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" t="s">
-        <v>30</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B10">
-        <v>204</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="5">
-        <v>8</v>
-      </c>
-      <c r="H10" s="5">
-        <v>4</v>
-      </c>
-      <c r="I10" t="s">
-        <v>33</v>
-      </c>
-      <c r="J10" t="s">
-        <v>33</v>
-      </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B11">
-        <v>205</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="5">
-        <v>8</v>
-      </c>
-      <c r="H11" s="5">
-        <v>4</v>
-      </c>
-      <c r="I11" t="s">
-        <v>36</v>
-      </c>
-      <c r="J11" t="s">
-        <v>36</v>
-      </c>
-      <c r="K11" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B12">
-        <v>206</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="5">
-        <v>8</v>
-      </c>
-      <c r="H12" s="5">
-        <v>2</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B13">
-        <v>207</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="5">
-        <v>8</v>
-      </c>
-      <c r="H13" s="5">
-        <v>2</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="K13" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B14">
-        <v>401</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="5">
-        <v>100</v>
-      </c>
-      <c r="H14" s="5">
-        <v>0</v>
-      </c>
-      <c r="I14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" s="3">
         <v>3</v>
       </c>
     </row>
@@ -1172,4 +893,539 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C560B156-72F5-4BB4-B59D-F65396D1FBE9}">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>200</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4">
+        <v>11</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>201</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5">
+        <v>7</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>202</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="5">
+        <v>11</v>
+      </c>
+      <c r="H6" s="5">
+        <v>2</v>
+      </c>
+      <c r="I6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>203</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="5">
+        <v>7</v>
+      </c>
+      <c r="H7" s="5">
+        <v>5</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>204</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="5">
+        <v>8</v>
+      </c>
+      <c r="H8" s="5">
+        <v>4</v>
+      </c>
+      <c r="I8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>205</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="5">
+        <v>8</v>
+      </c>
+      <c r="H9" s="5">
+        <v>4</v>
+      </c>
+      <c r="I9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>206</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="5">
+        <v>8</v>
+      </c>
+      <c r="H10" s="5">
+        <v>2</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>207</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="5">
+        <v>8</v>
+      </c>
+      <c r="H11" s="5">
+        <v>2</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C84BC46-CDB2-4A5E-B054-230758741C38}">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="10.75" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="12.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>300</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="5">
+        <v>100</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="3">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Luban/Configs/Datas/CardDatas/UnitCards.xlsx
+++ b/Luban/Configs/Datas/CardDatas/UnitCards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Game Projects\Unity Projects\Genpai\Luban\Configs\Datas\CardDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB4AF73A-3C46-4060-AE31-B8B069E82EAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1438DA5-41B5-4F31-8034-7253F0636149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="角色卡" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="66">
   <si>
     <t>##var</t>
   </si>
@@ -248,10 +248,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Element</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Chara</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -294,6 +290,13 @@
   </si>
   <si>
     <t>Hutao</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>common.Element</t>
+  </si>
+  <si>
+    <t>common.Element</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -699,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -713,8 +716,8 @@
     <col min="6" max="6" width="14.125" customWidth="1"/>
     <col min="7" max="7" width="12.375" customWidth="1"/>
     <col min="8" max="8" width="12.875" customWidth="1"/>
-    <col min="9" max="9" width="14.25" customWidth="1"/>
-    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="9" max="9" width="16.125" customWidth="1"/>
+    <col min="10" max="10" width="16.75" customWidth="1"/>
     <col min="11" max="11" width="11.25" customWidth="1"/>
     <col min="12" max="12" width="13.125" customWidth="1"/>
   </cols>
@@ -724,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
@@ -762,7 +765,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>3</v>
@@ -780,10 +783,10 @@
         <v>53</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>53</v>
@@ -829,13 +832,13 @@
         <v>100</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>63</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>14</v>
@@ -861,13 +864,13 @@
         <v>101</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
@@ -899,18 +902,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C560B156-72F5-4BB4-B59D-F65396D1FBE9}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="9" max="9" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="16.125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
@@ -948,7 +955,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>3</v>
@@ -966,10 +973,10 @@
         <v>53</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>53</v>
@@ -1015,7 +1022,7 @@
         <v>200</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
@@ -1047,7 +1054,7 @@
         <v>201</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
         <v>19</v>
@@ -1079,7 +1086,7 @@
         <v>202</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -1111,7 +1118,7 @@
         <v>203</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
         <v>24</v>
@@ -1143,7 +1150,7 @@
         <v>204</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
         <v>27</v>
@@ -1175,7 +1182,7 @@
         <v>205</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9" t="s">
         <v>30</v>
@@ -1207,7 +1214,7 @@
         <v>206</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>33</v>
@@ -1239,7 +1246,7 @@
         <v>207</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>37</v>
@@ -1277,7 +1284,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1285,6 +1292,8 @@
     <col min="4" max="4" width="10.75" customWidth="1"/>
     <col min="5" max="5" width="16.375" customWidth="1"/>
     <col min="6" max="6" width="12.25" customWidth="1"/>
+    <col min="9" max="9" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -1292,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
@@ -1330,7 +1339,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>3</v>
@@ -1348,10 +1357,10 @@
         <v>53</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>53</v>
@@ -1397,7 +1406,7 @@
         <v>300</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
         <v>39</v>

--- a/Luban/Configs/Datas/CardDatas/UnitCards.xlsx
+++ b/Luban/Configs/Datas/CardDatas/UnitCards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Game Projects\Unity Projects\Genpai\Luban\Configs\Datas\CardDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1438DA5-41B5-4F31-8034-7253F0636149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52DE001-5F2E-4396-9779-F8AEA1522447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="角色卡" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="73">
   <si>
     <t>##var</t>
   </si>
@@ -277,10 +277,6 @@
     </r>
   </si>
   <si>
-    <t>胡桃</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>刻晴</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -289,14 +285,45 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Hutao</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>common.Element</t>
   </si>
   <si>
     <t>common.Element</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EruptSkill</t>
+  </si>
+  <si>
+    <t>BaseSkill</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>固有技能</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆发技能</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>芭芭拉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Babala</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Electro</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hydro</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -700,10 +727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -722,7 +749,7 @@
     <col min="12" max="12" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -756,8 +783,14 @@
       <c r="K1" s="8" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -783,16 +816,22 @@
         <v>53</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -826,8 +865,14 @@
       <c r="K3" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>100</v>
       </c>
@@ -835,10 +880,10 @@
         <v>55</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>62</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>14</v>
@@ -849,8 +894,8 @@
       <c r="H4">
         <v>5</v>
       </c>
-      <c r="I4" t="s">
-        <v>15</v>
+      <c r="I4" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="J4" t="s">
         <v>15</v>
@@ -858,8 +903,14 @@
       <c r="K4" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4">
+        <v>500</v>
+      </c>
+      <c r="M4">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>101</v>
       </c>
@@ -867,10 +918,10 @@
         <v>55</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
@@ -881,14 +932,20 @@
       <c r="H5">
         <v>6</v>
       </c>
-      <c r="I5" t="s">
-        <v>15</v>
+      <c r="I5" s="9" t="s">
+        <v>72</v>
       </c>
       <c r="J5" t="s">
         <v>15</v>
       </c>
       <c r="K5" s="3">
         <v>3</v>
+      </c>
+      <c r="L5">
+        <v>501</v>
+      </c>
+      <c r="M5">
+        <v>503</v>
       </c>
     </row>
   </sheetData>
@@ -900,10 +957,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C560B156-72F5-4BB4-B59D-F65396D1FBE9}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -912,7 +969,7 @@
     <col min="10" max="10" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -946,8 +1003,14 @@
       <c r="K1" s="8" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -973,16 +1036,22 @@
         <v>53</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1016,8 +1085,14 @@
       <c r="K3" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>200</v>
       </c>
@@ -1049,7 +1124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>201</v>
       </c>
@@ -1081,7 +1156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>202</v>
       </c>
@@ -1113,7 +1188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>203</v>
       </c>
@@ -1145,7 +1220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>204</v>
       </c>
@@ -1177,7 +1252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>205</v>
       </c>
@@ -1209,7 +1284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>206</v>
       </c>
@@ -1241,7 +1316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>207</v>
       </c>
@@ -1281,10 +1356,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C84BC46-CDB2-4A5E-B054-230758741C38}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1296,7 +1371,7 @@
     <col min="10" max="10" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1330,8 +1405,14 @@
       <c r="K1" s="8" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1357,16 +1438,22 @@
         <v>53</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1400,8 +1487,14 @@
       <c r="K3" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>300</v>
       </c>

--- a/Luban/Configs/Datas/CardDatas/UnitCards.xlsx
+++ b/Luban/Configs/Datas/CardDatas/UnitCards.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25407"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Game Projects\Unity Projects\Genpai\Luban\Configs\Datas\CardDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52DE001-5F2E-4396-9779-F8AEA1522447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B6ACA3-2324-4D4C-981C-6CD9BFC0310A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9410" yWindow="4930" windowWidth="27730" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="角色卡" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="79">
   <si>
     <t>##var</t>
   </si>
@@ -315,15 +315,38 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Babala</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Electro</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Hydro</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡桃</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>砂糖</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chara</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hutao</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Barbara</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sucrose</t>
+  </si>
+  <si>
+    <t>Pyro</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -334,7 +357,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -389,6 +412,15 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -431,7 +463,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
@@ -450,6 +482,9 @@
     </xf>
     <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -727,29 +762,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="9.625" customWidth="1"/>
+    <col min="2" max="2" width="9.58203125" customWidth="1"/>
     <col min="3" max="3" width="15.25" customWidth="1"/>
     <col min="4" max="4" width="14.25" customWidth="1"/>
-    <col min="5" max="5" width="17.625" customWidth="1"/>
-    <col min="6" max="6" width="14.125" customWidth="1"/>
-    <col min="7" max="7" width="12.375" customWidth="1"/>
-    <col min="8" max="8" width="12.875" customWidth="1"/>
-    <col min="9" max="9" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="17.58203125" customWidth="1"/>
+    <col min="6" max="6" width="14.08203125" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" customWidth="1"/>
+    <col min="9" max="9" width="16.08203125" customWidth="1"/>
     <col min="10" max="10" width="16.75" customWidth="1"/>
     <col min="11" max="11" width="11.25" customWidth="1"/>
-    <col min="12" max="12" width="13.125" customWidth="1"/>
+    <col min="12" max="12" width="13.08203125" customWidth="1"/>
+    <col min="13" max="13" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -790,7 +826,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -831,7 +867,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -872,9 +908,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B4">
-        <v>100</v>
+        <v>10000000</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>55</v>
@@ -895,7 +931,7 @@
         <v>5</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s">
         <v>15</v>
@@ -903,16 +939,16 @@
       <c r="K4" s="3">
         <v>3</v>
       </c>
-      <c r="L4">
-        <v>500</v>
-      </c>
-      <c r="M4">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L4" s="10">
+        <v>20000000</v>
+      </c>
+      <c r="M4" s="10">
+        <v>20000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B5">
-        <v>101</v>
+        <v>10000001</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>55</v>
@@ -921,7 +957,7 @@
         <v>69</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
@@ -933,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s">
         <v>15</v>
@@ -942,10 +978,74 @@
         <v>3</v>
       </c>
       <c r="L5">
-        <v>501</v>
+        <v>20000002</v>
       </c>
       <c r="M5">
-        <v>503</v>
+        <v>20000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>10000002</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6">
+        <v>12</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>10000003</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="3">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -960,16 +1060,19 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:M3"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
     <col min="9" max="9" width="16.5" customWidth="1"/>
-    <col min="10" max="10" width="16.125" customWidth="1"/>
+    <col min="10" max="10" width="16.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1010,7 +1113,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1051,7 +1154,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1092,9 +1195,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B4">
-        <v>200</v>
+        <v>12000000</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>56</v>
@@ -1124,9 +1227,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B5">
-        <v>201</v>
+        <v>12000001</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>56</v>
@@ -1156,9 +1259,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6">
-        <v>202</v>
+        <v>12000002</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>56</v>
@@ -1188,9 +1291,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B7">
-        <v>203</v>
+        <v>12000003</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>56</v>
@@ -1220,9 +1323,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B8">
-        <v>204</v>
+        <v>12000004</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>56</v>
@@ -1252,9 +1355,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B9">
-        <v>205</v>
+        <v>12000005</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>56</v>
@@ -1284,9 +1387,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B10">
-        <v>206</v>
+        <v>12000006</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>56</v>
@@ -1316,9 +1419,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B11">
-        <v>207</v>
+        <v>12000007</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>56</v>
@@ -1359,19 +1462,20 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="C8" sqref="B8:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.75" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
     <col min="6" max="6" width="12.25" customWidth="1"/>
     <col min="9" max="9" width="16.5" customWidth="1"/>
-    <col min="10" max="10" width="16.375" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1412,7 +1516,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1453,7 +1557,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1494,9 +1598,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B4">
-        <v>300</v>
+        <v>11000000</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>57</v>

--- a/Luban/Configs/Datas/CardDatas/UnitCards.xlsx
+++ b/Luban/Configs/Datas/CardDatas/UnitCards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Game Projects\Unity Projects\Genpai\Luban\Configs\Datas\CardDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B6ACA3-2324-4D4C-981C-6CD9BFC0310A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50C941E-6845-4EBE-9C00-7AB2371955F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9410" yWindow="4930" windowWidth="27730" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5300" yWindow="3930" windowWidth="27730" windowHeight="14620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="角色卡" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="89">
   <si>
     <t>##var</t>
   </si>
@@ -348,6 +348,46 @@
   <si>
     <t>Pyro</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰箭丘丘人</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷箭丘丘人</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hilichurl Shooter</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cryo Hilichurl Shooter</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Electro Hilichurl Shooter</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿贝多</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Albedo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Geo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>射手丘丘人</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -762,10 +802,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -781,8 +821,8 @@
     <col min="9" max="9" width="16.08203125" customWidth="1"/>
     <col min="10" max="10" width="16.75" customWidth="1"/>
     <col min="11" max="11" width="11.25" customWidth="1"/>
-    <col min="12" max="12" width="13.08203125" customWidth="1"/>
-    <col min="13" max="13" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.9140625" customWidth="1"/>
+    <col min="13" max="13" width="12.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -977,10 +1017,10 @@
       <c r="K5" s="3">
         <v>3</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="10">
         <v>20000002</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="10">
         <v>20000003</v>
       </c>
     </row>
@@ -992,12 +1032,12 @@
         <v>74</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="F6" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" t="s">
         <v>14</v>
       </c>
       <c r="G6">
@@ -1007,13 +1047,19 @@
         <v>5</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="J6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" s="9" t="s">
         <v>15</v>
       </c>
       <c r="K6" s="3">
         <v>3</v>
+      </c>
+      <c r="L6" s="10">
+        <v>20000004</v>
+      </c>
+      <c r="M6" s="10">
+        <v>20000005</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -1047,6 +1093,46 @@
       <c r="K7" s="3">
         <v>3</v>
       </c>
+      <c r="L7" s="10">
+        <v>20000006</v>
+      </c>
+      <c r="M7" s="10">
+        <v>20000007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>10000004</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8">
+        <v>12</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="J8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="3">
+        <v>3</v>
+      </c>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1057,19 +1143,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C560B156-72F5-4BB4-B59D-F65396D1FBE9}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="19.58203125" customWidth="1"/>
     <col min="9" max="9" width="16.5" customWidth="1"/>
-    <col min="10" max="10" width="16.08203125" customWidth="1"/>
+    <col min="10" max="10" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -1333,7 +1419,7 @@
       <c r="D8" t="s">
         <v>27</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="9" t="s">
         <v>28</v>
       </c>
       <c r="F8" t="s">
@@ -1365,7 +1451,7 @@
       <c r="D9" t="s">
         <v>30</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="9" t="s">
         <v>31</v>
       </c>
       <c r="F9" t="s">
@@ -1448,6 +1534,102 @@
         <v>36</v>
       </c>
       <c r="K11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>12000008</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="5">
+        <v>8</v>
+      </c>
+      <c r="H12" s="5">
+        <v>3</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>12000009</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="5">
+        <v>8</v>
+      </c>
+      <c r="H13" s="5">
+        <v>2</v>
+      </c>
+      <c r="I13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>12000010</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="5">
+        <v>8</v>
+      </c>
+      <c r="H14" s="5">
+        <v>2</v>
+      </c>
+      <c r="I14" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14" s="3">
         <v>0</v>
       </c>
     </row>
